--- a/HDT 5 - Gráficas Simmulación.xlsx
+++ b/HDT 5 - Gráficas Simmulación.xlsx
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,13 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +128,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -242,6 +253,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11377310464590717"/>
+                  <c:y val="-8.5982905982905977E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$B$6:$B$10</c:f>
@@ -272,6 +334,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.017142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0085710000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0069360000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0240279999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -663,6 +740,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11122776319626713"/>
+                  <c:y val="-8.6724137931034478E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$F$6:$F$10</c:f>
@@ -693,6 +821,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.048227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.024114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.025793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0377179999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0497970000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1089,6 +1232,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12368801558808946"/>
+                  <c:y val="-9.3682678311499276E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$J$6:$J$10</c:f>
@@ -1119,6 +1313,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1532789999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2604690000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6598790000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6897150000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.661837</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3467,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3479,11 +3688,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="5" t="s">
         <v>4</v>
@@ -3498,130 +3707,174 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>25</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3">
+        <v>1.017142</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.5710838224700006E-2</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>25</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="3">
+        <v>1.048227</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>25</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="3">
+        <v>1.1532789999999999</v>
+      </c>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>50</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="3">
+        <v>1.0085710000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.06067149298E-2</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>50</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="3">
+        <v>1.024114</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>50</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3">
+        <v>1.2604690000000001</v>
+      </c>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>100</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3">
+        <v>1.0069360000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.01623280472E-2</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="3">
+        <v>1.025793</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="3">
+        <v>1.6598790000000001</v>
+      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>150</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="6">
+        <v>1.01468</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.5648240164799994E-2</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>150</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="3">
+        <v>1.0377179999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.14690005933600001</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>150</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="3">
+        <v>1.6897150000000001</v>
+      </c>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>200</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3">
+        <v>1.0240279999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.118107657688</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="3">
+        <v>1.0497970000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.18408504912199999</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="3">
+        <v>1.661837</v>
+      </c>
+      <c r="L10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
